--- a/Data_clean/MCAS/Estados_US/Edos_USA_2011/DISTRICT_OF_COLUMBIA_2011.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2011/DISTRICT_OF_COLUMBIA_2011.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Moroleon</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Ajuchitlan Del Progreso</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Chilapa De Alvarez</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Olinala</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Zitlala</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Atizapan</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Rayon</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Maravatio</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tacambaro</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tinguindin</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1399,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1412,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -1425,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1438,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1469,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1482,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1513,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -1526,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -1539,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Juchitan De Zaragoza</t>
@@ -1552,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Magdalena Apasco</t>
@@ -1565,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1578,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Reyes Etla</t>
@@ -1591,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>San Jose Chiltepec</t>
@@ -1604,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1617,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -1630,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1661,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Acatlan</t>
@@ -1674,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1687,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -1700,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1713,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -1726,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Huehuetlan El Grande</t>
@@ -1739,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Ixcaquixtla</t>
@@ -1752,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -1765,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -1778,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1791,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Soltepec</t>
@@ -1804,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tehuacan</t>
@@ -1817,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -1830,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tepanco De Lopez</t>
@@ -1843,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Teziutlan</t>
@@ -1856,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juarez</t>
@@ -1869,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Xayacatlan De Bravo</t>
@@ -1882,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1913,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -1926,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -1939,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Paraiso</t>
@@ -1952,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1983,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -1996,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Tetla De La Solidaridad</t>
@@ -2009,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -2022,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2053,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -2066,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -2079,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -2092,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2105,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -2118,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Rafael Delgado</t>
@@ -2131,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -2144,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2157,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -2170,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2201,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -2214,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Total</t>
